--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/42/word_level_predictions_42.xlsx
@@ -866,936 +866,936 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>propellers</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>correctly</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cannot</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>takeoff,</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>17</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>propellers</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>correctly</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>cannot</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>takeoff,</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -2062,260 +2062,260 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>23</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>24</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>25</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>26</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>27</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2374,106 +2374,106 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="D39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/42/word_level_predictions_42.xlsx
@@ -866,936 +866,936 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>propellers</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>correctly</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>propellers</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="D17" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="D18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="D19" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>correctly</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="D20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>cannot</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>takeoff,</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>propellers</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>8</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>correctly</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>11</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>12</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>13</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>14</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>15</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>cannot</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>16</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>takeoff,</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>17</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -2062,260 +2062,260 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>24</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>25</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>assistance</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>26</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>assistance</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>27</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2374,106 +2374,106 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Capture</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
